--- a/nodes.xlsx
+++ b/nodes.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d6aaedf7c31cb3db/Documenten/TA_ABMS/code_student_versie10_09/code_student_versie/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codings\py\AEagentbased\Agent_based\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="8_{262F959F-D5D6-445F-8AB2-5E13F369AF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B26FBC9-24E1-46B9-9561-476C3A6A6E4A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983C7D0A-80B3-4465-947B-01E8DE754F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2631F39B-5474-4585-B2F3-6920B4A1DD9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="10">
   <si>
     <t>id</t>
   </si>
@@ -61,6 +52,9 @@
   </si>
   <si>
     <t>between</t>
+  </si>
+  <si>
+    <t>charging</t>
   </si>
 </sst>
 </file>
@@ -412,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C710FD-199A-4CFC-B028-EEC314E31456}">
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="K111" sqref="K111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1950,6 +1944,34 @@
         <v>8</v>
       </c>
     </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>5.5</v>
+      </c>
+      <c r="C110">
+        <v>0.5</v>
+      </c>
+      <c r="D110" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>6</v>
+      </c>
+      <c r="C111">
+        <v>0.5</v>
+      </c>
+      <c r="D111" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nodes.xlsx
+++ b/nodes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codings\py\AEagentbased\Agent_based\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983C7D0A-80B3-4465-947B-01E8DE754F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169B5DB3-BD1B-450B-9F5D-F14915307744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2631F39B-5474-4585-B2F3-6920B4A1DD9F}"/>
   </bookViews>
@@ -408,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C710FD-199A-4CFC-B028-EEC314E31456}">
   <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="K111" sqref="K111"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1949,7 +1949,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C110">
         <v>0.5</v>

--- a/nodes.xlsx
+++ b/nodes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codings\py\AEagentbased\Agent_based\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dani\Agent_based\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169B5DB3-BD1B-450B-9F5D-F14915307744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B7409D-668F-4078-A108-254B4C14E1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2631F39B-5474-4585-B2F3-6920B4A1DD9F}"/>
+    <workbookView xWindow="3000" yWindow="1090" windowWidth="14400" windowHeight="8170" xr2:uid="{2631F39B-5474-4585-B2F3-6920B4A1DD9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,9 +110,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -150,7 +150,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -256,7 +256,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -398,7 +398,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -409,16 +409,16 @@
   <dimension ref="A1:D111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,7 +432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -460,7 +460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -474,7 +474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -488,7 +488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -502,7 +502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -516,7 +516,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -530,7 +530,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -544,7 +544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -558,7 +558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -572,7 +572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -586,7 +586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -600,7 +600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -614,7 +614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -628,7 +628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -642,7 +642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -656,7 +656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -670,7 +670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -684,7 +684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -698,7 +698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -712,7 +712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -726,7 +726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -740,7 +740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -754,7 +754,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -768,7 +768,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -782,7 +782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -796,7 +796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -810,7 +810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -824,7 +824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -838,7 +838,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -852,7 +852,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -866,7 +866,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -880,7 +880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -894,7 +894,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -908,7 +908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -922,7 +922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -936,7 +936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -950,7 +950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -964,7 +964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -978,7 +978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -992,7 +992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
@@ -1944,21 +1944,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C110">
-        <v>0.5</v>
+        <v>7.5</v>
       </c>
       <c r="D110" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>

--- a/nodes.xlsx
+++ b/nodes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dani\Agent_based\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tim\Documents\TU\Master\AE4422-20 Agent-based Modelling and Simulation in Airtransport\Code\Agent_based-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B7409D-668F-4078-A108-254B4C14E1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C4F2F6-7D17-4DD4-A867-B816E2C12B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="1090" windowWidth="14400" windowHeight="8170" xr2:uid="{2631F39B-5474-4585-B2F3-6920B4A1DD9F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{2631F39B-5474-4585-B2F3-6920B4A1DD9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -408,17 +408,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C710FD-199A-4CFC-B028-EEC314E31456}">
   <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,7 +432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -460,7 +460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -474,7 +474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -488,7 +488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -502,7 +502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -516,7 +516,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -530,7 +530,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -544,7 +544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -558,7 +558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -572,7 +572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -586,7 +586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -600,7 +600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -614,7 +614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -628,7 +628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -642,7 +642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -656,7 +656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -670,7 +670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -684,7 +684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -698,7 +698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -712,7 +712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -726,7 +726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -740,7 +740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -754,7 +754,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -768,7 +768,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -782,7 +782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -796,7 +796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -810,7 +810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -824,7 +824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -838,7 +838,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -852,7 +852,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -866,7 +866,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -880,7 +880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -894,7 +894,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -908,7 +908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -922,7 +922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -936,7 +936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -950,7 +950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -964,7 +964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -978,7 +978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -992,7 +992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
